--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
@@ -677,7 +677,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationDispense.subject</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -485,29 +485,306 @@
     <t>MedicationDispense.identifier</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>orderInRp</t>
+  </si>
+  <si>
+    <t>同一RP番号（剤グループ）での薬剤の表記順</t>
+  </si>
+  <si>
+    <t>同一剤グループでの薬剤を表記する際の順番。XML形式と異なりJSON形式の場合、表記順は項目の順序を意味しない。したがって、薬剤の記載順を別に規定する必要があるためIDを用いて表現する。</t>
+  </si>
+  <si>
+    <t>同一剤グループ内での薬剤の順番を1から順の番号で示す。</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番を示すsystem値</t>
+  </si>
+  <si>
+    <t>剤グループ内番号の名前空間を識別するURI。固定値urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.82</t>
+  </si>
+  <si>
+    <t>RP番号内（剤グループ内）の連番</t>
+  </si>
+  <si>
+    <t>剤グループ内連番。</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +820,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +868,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -773,32 +1043,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1566,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1602,7 +1847,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2883,7 +3128,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2898,16 +3143,16 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2945,16 +3190,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2972,16 +3215,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2989,18 +3232,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3012,15 +3257,17 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3069,7 +3316,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3084,16 +3331,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3109,7 +3356,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3118,23 +3365,21 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3159,55 +3404,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3215,18 +3460,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3238,15 +3483,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3271,49 +3518,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3327,7 +3574,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3344,24 +3591,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3385,13 +3634,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3409,7 +3658,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3427,7 +3676,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3436,12 +3685,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3449,7 +3698,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3464,18 +3713,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3499,32 +3750,34 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3536,28 +3789,26 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3578,30 +3829,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3613,13 +3866,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3637,10 +3890,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3652,24 +3905,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3692,16 +3945,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3715,7 +3968,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3751,7 +4004,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3766,24 +4019,24 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3803,20 +4056,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3880,10 +4131,10 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -3892,12 +4143,12 @@
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3908,7 +4159,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3917,19 +4168,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3979,13 +4230,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3997,23 +4248,25 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4034,15 +4287,17 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4091,7 +4346,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4106,16 +4361,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4123,7 +4378,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4146,13 +4401,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4203,7 +4458,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4476,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4235,7 +4490,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4261,10 +4516,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
@@ -4305,19 +4560,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4335,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4349,18 +4604,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4372,19 +4627,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4409,13 +4664,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4433,39 +4688,39 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4485,20 +4740,22 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4523,13 +4780,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4547,7 +4804,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4565,7 +4822,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4574,12 +4831,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4599,31 +4856,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4659,10 +4920,10 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
@@ -4674,10 +4935,10 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4686,12 +4947,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4699,7 +4960,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
@@ -4711,19 +4972,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>266</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4737,7 +4998,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4773,7 +5034,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -4791,7 +5052,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4800,12 +5061,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4816,7 +5077,7 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
@@ -4825,20 +5086,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4887,13 +5146,13 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
@@ -4902,24 +5161,24 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4939,19 +5198,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4977,13 +5236,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5001,7 +5260,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5019,23 +5278,25 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5056,16 +5317,16 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5115,39 +5376,39 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>293</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5170,17 +5431,15 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5229,7 +5488,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5238,16 +5497,16 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>170</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5256,23 +5515,23 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5281,18 +5540,20 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>300</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5329,51 +5590,51 @@
         <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5381,7 +5642,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
@@ -5390,22 +5651,26 @@
         <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5429,13 +5694,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5453,7 +5718,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>184</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5468,24 +5733,24 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>310</v>
+        <v>185</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>305</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5505,21 +5770,23 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>188</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5543,13 +5810,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5567,7 +5834,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5585,21 +5852,21 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>185</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5607,10 +5874,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5619,33 +5886,35 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>77</v>
@@ -5681,13 +5950,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5699,21 +5968,21 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>321</v>
+        <v>205</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5721,10 +5990,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5733,19 +6002,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5759,7 +6028,7 @@
         <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>77</v>
@@ -5795,13 +6064,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5810,10 +6079,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5822,12 +6091,12 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5838,7 +6107,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5847,20 +6116,18 @@
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -5909,13 +6176,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5927,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -5936,12 +6203,12 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5961,18 +6228,20 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6021,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6039,21 +6308,21 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>339</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6064,7 +6333,7 @@
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6076,13 +6345,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6133,25 +6402,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6165,39 +6434,39 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>147</v>
+        <v>258</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6223,13 +6492,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6247,31 +6516,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6279,43 +6548,39 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6339,13 +6604,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6363,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6395,7 +6660,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6403,7 +6668,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6418,15 +6683,17 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6451,13 +6718,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6475,10 +6742,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6493,7 +6760,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6507,7 +6774,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6515,7 +6782,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
@@ -6527,19 +6794,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6565,34 +6832,32 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>353</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>354</v>
+        <v>286</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
@@ -6604,35 +6869,37 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>356</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6641,19 +6908,19 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6679,13 +6946,13 @@
         <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>77</v>
@@ -6703,13 +6970,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>357</v>
+        <v>281</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6718,24 +6985,24 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>292</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6743,10 +7010,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -6755,19 +7022,19 @@
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6817,13 +7084,13 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
@@ -6832,35 +7099,35 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -6872,16 +7139,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>375</v>
+        <v>302</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6931,13 +7198,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -6946,10 +7213,10 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -6963,7 +7230,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6986,16 +7253,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7045,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7063,15 +7330,3081 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationdispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="463">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2081,13 +2077,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2101,7 +2097,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2112,28 +2108,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2183,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2215,7 +2211,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2226,25 +2222,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2295,19 +2291,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2327,7 +2323,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2338,28 +2334,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2409,19 +2405,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2441,7 +2437,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2452,7 +2448,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2464,16 +2460,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2499,43 +2495,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2555,18 +2551,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2578,16 +2574,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2637,25 +2633,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2669,11 +2665,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2692,16 +2688,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2751,7 +2747,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2769,7 +2765,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2783,7 +2779,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2806,13 +2802,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2851,17 +2847,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -2873,7 +2869,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2893,10 +2889,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2918,13 +2914,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2975,7 +2971,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -2984,10 +2980,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3007,11 +3003,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3024,25 +3020,25 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3091,7 +3087,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3103,13 +3099,13 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>78</v>
@@ -3123,7 +3119,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3131,7 +3127,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3146,16 +3142,16 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3193,17 +3189,17 @@
         <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3215,19 +3211,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3235,20 +3231,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3260,16 +3256,16 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3319,7 +3315,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3331,19 +3327,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3351,7 +3347,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3362,7 +3358,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3374,13 +3370,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3431,25 +3427,25 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3463,11 +3459,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3486,16 +3482,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3533,19 +3529,19 @@
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB15" t="s" s="2">
+      <c r="AE15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3557,13 +3553,13 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3577,7 +3573,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3588,31 +3584,31 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3637,50 +3633,50 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3688,12 +3684,12 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3704,31 +3700,31 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -3753,63 +3749,63 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3817,115 +3813,115 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s" s="2">
+      <c r="T18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3933,31 +3929,31 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3971,75 +3967,75 @@
         <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4050,25 +4046,25 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4119,39 +4115,39 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4162,28 +4158,28 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4233,42 +4229,42 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>78</v>
@@ -4290,16 +4286,16 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4349,7 +4345,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4361,19 +4357,19 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4381,7 +4377,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4392,7 +4388,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4404,13 +4400,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4461,25 +4457,25 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4493,11 +4489,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4516,16 +4512,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4563,19 +4559,19 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4587,13 +4583,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4607,7 +4603,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4618,31 +4614,31 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4667,50 +4663,50 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4718,12 +4714,12 @@
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4734,31 +4730,31 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4783,63 +4779,63 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4847,115 +4843,115 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="M27" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4963,31 +4959,31 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5001,75 +4997,75 @@
         <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5080,25 +5076,25 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5149,39 +5145,39 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5192,28 +5188,28 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5263,52 +5259,52 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5320,16 +5316,16 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5379,7 +5375,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5391,19 +5387,19 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5411,7 +5407,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5422,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5434,13 +5430,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5491,25 +5487,25 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -5523,11 +5519,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5546,16 +5542,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5593,19 +5589,19 @@
         <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB33" t="s" s="2">
+      <c r="AE33" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5617,13 +5613,13 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -5637,7 +5633,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5648,31 +5644,31 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5697,50 +5693,50 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X34" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X34" t="s" s="2">
+      <c r="Y34" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5748,12 +5744,12 @@
         <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5764,31 +5760,31 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5813,63 +5809,63 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5877,115 +5873,115 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5993,31 +5989,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6031,75 +6027,75 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="T37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6110,25 +6106,25 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J38" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6179,39 +6175,39 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6222,28 +6218,28 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6293,39 +6289,39 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6348,13 +6344,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6405,7 +6401,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6417,13 +6413,13 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>78</v>
@@ -6437,7 +6433,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6445,31 +6441,31 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6495,55 +6491,55 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6551,7 +6547,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6562,7 +6558,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6574,13 +6570,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6607,49 +6603,49 @@
         <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="X42" t="s" s="2">
+      <c r="Y42" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -6663,7 +6659,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6674,7 +6670,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6686,16 +6682,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6721,49 +6717,49 @@
         <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>78</v>
@@ -6777,7 +6773,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6785,31 +6781,31 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6835,95 +6831,95 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AE44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6949,14 +6945,14 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6973,39 +6969,39 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7013,31 +7009,31 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7087,39 +7083,39 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7130,7 +7126,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7142,16 +7138,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7201,25 +7197,25 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7233,7 +7229,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7256,16 +7252,16 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7315,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7327,16 +7323,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7347,7 +7343,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7370,13 +7366,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7427,7 +7423,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7439,13 +7435,13 @@
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7459,7 +7455,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7470,7 +7466,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>78</v>
@@ -7482,13 +7478,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7539,25 +7535,25 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>78</v>
@@ -7571,11 +7567,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7594,16 +7590,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7653,7 +7649,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7665,13 +7661,13 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>78</v>
@@ -7685,11 +7681,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7702,25 +7698,25 @@
         <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="M52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7769,7 +7765,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7781,13 +7777,13 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>78</v>
@@ -7801,7 +7797,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7812,7 +7808,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7824,17 +7820,17 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7859,49 +7855,49 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y53" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>78</v>
@@ -7915,7 +7911,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7923,10 +7919,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -7938,13 +7934,13 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7995,25 +7991,25 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8038,7 +8034,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8050,16 +8046,16 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8109,25 +8105,25 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8141,7 +8137,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8164,16 +8160,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8223,7 +8219,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8235,27 +8231,27 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>359</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8266,7 +8262,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8278,16 +8274,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8313,63 +8309,63 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8377,10 +8373,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8392,16 +8388,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8451,39 +8447,39 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8494,7 +8490,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8506,16 +8502,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8565,39 +8561,39 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8608,25 +8604,25 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8677,39 +8673,39 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8717,10 +8713,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8732,13 +8728,13 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8789,39 +8785,39 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AK61" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8832,7 +8828,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -8844,16 +8840,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>394</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8903,39 +8899,39 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8958,16 +8954,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9017,7 +9013,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9029,19 +9025,19 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9049,7 +9045,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9072,16 +9068,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9131,7 +9127,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9143,27 +9139,27 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>411</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9186,16 +9182,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9245,7 +9241,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9257,13 +9253,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
@@ -9277,7 +9273,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9288,7 +9284,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9300,13 +9296,13 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9357,31 +9353,31 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9389,7 +9385,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9400,7 +9396,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9412,13 +9408,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9469,25 +9465,25 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -9501,11 +9497,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9524,16 +9520,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9583,7 +9579,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9595,13 +9591,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9615,11 +9611,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9632,25 +9628,25 @@
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -9699,7 +9695,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -9711,13 +9707,13 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>78</v>
@@ -9731,7 +9727,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9739,10 +9735,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -9754,13 +9750,13 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9811,25 +9807,25 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>78</v>
@@ -9843,7 +9839,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9854,7 +9850,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -9866,16 +9862,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9901,63 +9897,63 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>437</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9980,16 +9976,16 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L72" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="M72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10015,14 +10011,14 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10039,7 +10035,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10051,19 +10047,19 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10071,7 +10067,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10094,16 +10090,16 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L73" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="M73" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10153,7 +10149,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10165,19 +10161,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10185,11 +10181,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10208,16 +10204,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10267,7 +10263,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10279,13 +10275,13 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
@@ -10299,7 +10295,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10322,16 +10318,16 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10381,7 +10377,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -10393,13 +10389,13 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
